--- a/Test Data Driven/AI-Generated/TC21-Navigate to Welcome Page and Verify Home.xlsx
+++ b/Test Data Driven/AI-Generated/TC21-Navigate to Welcome Page and Verify Home.xlsx
@@ -452,7 +452,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_teamMember_internalRoleButtonName</t>
+          <t>button_userAction_internalRoleButtonName</t>
         </is>
       </c>
     </row>
